--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dhh-Boc.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dhh-Boc.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.778327333333334</v>
+        <v>4.573795666666666</v>
       </c>
       <c r="H2">
-        <v>11.334982</v>
+        <v>13.721387</v>
       </c>
       <c r="I2">
-        <v>0.6340793198407453</v>
+        <v>0.6529099782872276</v>
       </c>
       <c r="J2">
-        <v>0.6340793198407455</v>
+        <v>0.6529099782872277</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.274082666666667</v>
+        <v>2.330737666666666</v>
       </c>
       <c r="N2">
-        <v>6.822248</v>
+        <v>6.992213</v>
       </c>
       <c r="O2">
-        <v>0.08425229461217887</v>
+        <v>0.08387223179237234</v>
       </c>
       <c r="P2">
-        <v>0.08425229461217888</v>
+        <v>0.08387223179237237</v>
       </c>
       <c r="Q2">
-        <v>8.592228697726224</v>
+        <v>10.66031783993678</v>
       </c>
       <c r="R2">
-        <v>77.33005827953602</v>
+        <v>95.942860559431</v>
       </c>
       <c r="S2">
-        <v>0.05342263766271246</v>
+        <v>0.05476101703845915</v>
       </c>
       <c r="T2">
-        <v>0.05342263766271249</v>
+        <v>0.05476101703845918</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.778327333333334</v>
+        <v>4.573795666666666</v>
       </c>
       <c r="H3">
-        <v>11.334982</v>
+        <v>13.721387</v>
       </c>
       <c r="I3">
-        <v>0.6340793198407453</v>
+        <v>0.6529099782872276</v>
       </c>
       <c r="J3">
-        <v>0.6340793198407455</v>
+        <v>0.6529099782872277</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>68.066532</v>
       </c>
       <c r="O3">
-        <v>0.8405970447414548</v>
+        <v>0.8164642509041029</v>
       </c>
       <c r="P3">
-        <v>0.8405970447414549</v>
+        <v>0.816464250904103</v>
       </c>
       <c r="Q3">
-        <v>85.72587944693601</v>
+        <v>103.774136368876</v>
       </c>
       <c r="R3">
-        <v>771.532915022424</v>
+        <v>933.9672273198839</v>
       </c>
       <c r="S3">
-        <v>0.5330052023898022</v>
+        <v>0.5330776563300954</v>
       </c>
       <c r="T3">
-        <v>0.5330052023898024</v>
+        <v>0.5330776563300955</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.778327333333334</v>
+        <v>4.573795666666666</v>
       </c>
       <c r="H4">
-        <v>11.334982</v>
+        <v>13.721387</v>
       </c>
       <c r="I4">
-        <v>0.6340793198407453</v>
+        <v>0.6529099782872276</v>
       </c>
       <c r="J4">
-        <v>0.6340793198407455</v>
+        <v>0.6529099782872277</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.99295</v>
+        <v>0.04840566666666667</v>
       </c>
       <c r="N4">
-        <v>5.97885</v>
+        <v>0.145217</v>
       </c>
       <c r="O4">
-        <v>0.07383663444102673</v>
+        <v>0.001741891141501687</v>
       </c>
       <c r="P4">
-        <v>0.07383663444102673</v>
+        <v>0.001741891141501688</v>
       </c>
       <c r="Q4">
-        <v>7.530017458966668</v>
+        <v>0.2213976284421111</v>
       </c>
       <c r="R4">
-        <v>67.77015713070001</v>
+        <v>1.992578655979</v>
       </c>
       <c r="S4">
-        <v>0.04681828294569598</v>
+        <v>0.001137298107376581</v>
       </c>
       <c r="T4">
-        <v>0.04681828294569599</v>
+        <v>0.001137298107376581</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.778327333333334</v>
+        <v>4.573795666666666</v>
       </c>
       <c r="H5">
-        <v>11.334982</v>
+        <v>13.721387</v>
       </c>
       <c r="I5">
-        <v>0.6340793198407453</v>
+        <v>0.6529099782872276</v>
       </c>
       <c r="J5">
-        <v>0.6340793198407455</v>
+        <v>0.6529099782872277</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.03546733333333333</v>
+        <v>2.721158333333333</v>
       </c>
       <c r="N5">
-        <v>0.106402</v>
+        <v>8.163475</v>
       </c>
       <c r="O5">
-        <v>0.001314026205339509</v>
+        <v>0.09792162616202293</v>
       </c>
       <c r="P5">
-        <v>0.001314026205339509</v>
+        <v>0.09792162616202295</v>
       </c>
       <c r="Q5">
-        <v>0.1340071949737778</v>
+        <v>12.44602219331389</v>
       </c>
       <c r="R5">
-        <v>1.206064754764</v>
+        <v>112.014199739825</v>
       </c>
       <c r="S5">
-        <v>0.0008331968425345914</v>
+        <v>0.06393400681129642</v>
       </c>
       <c r="T5">
-        <v>0.0008331968425345918</v>
+        <v>0.06393400681129643</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>4.171665</v>
       </c>
       <c r="I6">
-        <v>0.2333630971626988</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="J6">
-        <v>0.2333630971626989</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.274082666666667</v>
+        <v>2.330737666666666</v>
       </c>
       <c r="N6">
-        <v>6.822248</v>
+        <v>6.992213</v>
       </c>
       <c r="O6">
-        <v>0.08425229461217887</v>
+        <v>0.08387223179237234</v>
       </c>
       <c r="P6">
-        <v>0.08425229461217888</v>
+        <v>0.08387223179237237</v>
       </c>
       <c r="Q6">
-        <v>3.162237022546666</v>
+        <v>3.241018916071666</v>
       </c>
       <c r="R6">
-        <v>28.46013320292</v>
+        <v>29.169170244645</v>
       </c>
       <c r="S6">
-        <v>0.01966137641376223</v>
+        <v>0.01664879929002394</v>
       </c>
       <c r="T6">
-        <v>0.01966137641376223</v>
+        <v>0.01664879929002394</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4.171665</v>
       </c>
       <c r="I7">
-        <v>0.2333630971626988</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="J7">
-        <v>0.2333630971626989</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>68.066532</v>
       </c>
       <c r="O7">
-        <v>0.8405970447414548</v>
+        <v>0.8164642509041029</v>
       </c>
       <c r="P7">
-        <v>0.8405970447414549</v>
+        <v>0.816464250904103</v>
       </c>
       <c r="Q7">
         <v>31.55008546842</v>
@@ -886,10 +886,10 @@
         <v>283.95076921578</v>
       </c>
       <c r="S7">
-        <v>0.1961643298266776</v>
+        <v>0.1620697237964564</v>
       </c>
       <c r="T7">
-        <v>0.1961643298266777</v>
+        <v>0.1620697237964564</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>4.171665</v>
       </c>
       <c r="I8">
-        <v>0.2333630971626988</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="J8">
-        <v>0.2333630971626989</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.99295</v>
+        <v>0.04840566666666667</v>
       </c>
       <c r="N8">
-        <v>5.97885</v>
+        <v>0.145217</v>
       </c>
       <c r="O8">
-        <v>0.07383663444102673</v>
+        <v>0.001741891141501687</v>
       </c>
       <c r="P8">
-        <v>0.07383663444102673</v>
+        <v>0.001741891141501688</v>
       </c>
       <c r="Q8">
-        <v>2.77130658725</v>
+        <v>0.06731074181166667</v>
       </c>
       <c r="R8">
-        <v>24.94175928525</v>
+        <v>0.605796676305</v>
       </c>
       <c r="S8">
-        <v>0.017230745697228</v>
+        <v>0.0003457687410980482</v>
       </c>
       <c r="T8">
-        <v>0.017230745697228</v>
+        <v>0.0003457687410980483</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>4.171665</v>
       </c>
       <c r="I9">
-        <v>0.2333630971626988</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="J9">
-        <v>0.2333630971626989</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.03546733333333333</v>
+        <v>2.721158333333333</v>
       </c>
       <c r="N9">
-        <v>0.106402</v>
+        <v>8.163475</v>
       </c>
       <c r="O9">
-        <v>0.001314026205339509</v>
+        <v>0.09792162616202293</v>
       </c>
       <c r="P9">
-        <v>0.001314026205339509</v>
+        <v>0.09792162616202295</v>
       </c>
       <c r="Q9">
-        <v>0.04931927770333333</v>
+        <v>3.783920326208333</v>
       </c>
       <c r="R9">
-        <v>0.44387349933</v>
+        <v>34.055282935875</v>
       </c>
       <c r="S9">
-        <v>0.0003066452250309763</v>
+        <v>0.01943763108820172</v>
       </c>
       <c r="T9">
-        <v>0.0003066452250309765</v>
+        <v>0.01943763108820172</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2515026666666667</v>
+        <v>0.3547236666666667</v>
       </c>
       <c r="H10">
-        <v>0.754508</v>
+        <v>1.064171</v>
       </c>
       <c r="I10">
-        <v>0.04220720592713786</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="J10">
-        <v>0.04220720592713787</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.274082666666667</v>
+        <v>2.330737666666666</v>
       </c>
       <c r="N10">
-        <v>6.822248</v>
+        <v>6.992213</v>
       </c>
       <c r="O10">
-        <v>0.08425229461217887</v>
+        <v>0.08387223179237234</v>
       </c>
       <c r="P10">
-        <v>0.08425229461217888</v>
+        <v>0.08387223179237237</v>
       </c>
       <c r="Q10">
-        <v>0.5719378548871111</v>
+        <v>0.826767811158111</v>
       </c>
       <c r="R10">
-        <v>5.147440693984</v>
+        <v>7.440910300422999</v>
       </c>
       <c r="S10">
-        <v>0.003556053948530122</v>
+        <v>0.004247025921128389</v>
       </c>
       <c r="T10">
-        <v>0.003556053948530122</v>
+        <v>0.004247025921128391</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.2515026666666667</v>
+        <v>0.3547236666666667</v>
       </c>
       <c r="H11">
-        <v>0.754508</v>
+        <v>1.064171</v>
       </c>
       <c r="I11">
-        <v>0.04220720592713786</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="J11">
-        <v>0.04220720592713787</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>68.066532</v>
       </c>
       <c r="O11">
-        <v>0.8405970447414548</v>
+        <v>0.8164642509041029</v>
       </c>
       <c r="P11">
-        <v>0.8405970447414549</v>
+        <v>0.816464250904103</v>
       </c>
       <c r="Q11">
-        <v>5.706304769583999</v>
+        <v>8.048269936107999</v>
       </c>
       <c r="R11">
-        <v>51.356742926256</v>
+        <v>72.434429424972</v>
       </c>
       <c r="S11">
-        <v>0.0354792525691461</v>
+        <v>0.04134318073052338</v>
       </c>
       <c r="T11">
-        <v>0.03547925256914611</v>
+        <v>0.04134318073052339</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2515026666666667</v>
+        <v>0.3547236666666667</v>
       </c>
       <c r="H12">
-        <v>0.754508</v>
+        <v>1.064171</v>
       </c>
       <c r="I12">
-        <v>0.04220720592713786</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="J12">
-        <v>0.04220720592713787</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.99295</v>
+        <v>0.04840566666666667</v>
       </c>
       <c r="N12">
-        <v>5.97885</v>
+        <v>0.145217</v>
       </c>
       <c r="O12">
-        <v>0.07383663444102673</v>
+        <v>0.001741891141501687</v>
       </c>
       <c r="P12">
-        <v>0.07383663444102673</v>
+        <v>0.001741891141501688</v>
       </c>
       <c r="Q12">
-        <v>0.5012322395333334</v>
+        <v>0.01717063556744445</v>
       </c>
       <c r="R12">
-        <v>4.5110901558</v>
+        <v>0.154535720107</v>
       </c>
       <c r="S12">
-        <v>0.003116438034819215</v>
+        <v>8.820388669345478E-05</v>
       </c>
       <c r="T12">
-        <v>0.003116438034819216</v>
+        <v>8.820388669345479E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,55 +1213,55 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2515026666666667</v>
+        <v>0.3547236666666667</v>
       </c>
       <c r="H13">
-        <v>0.754508</v>
+        <v>1.064171</v>
       </c>
       <c r="I13">
-        <v>0.04220720592713786</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="J13">
-        <v>0.04220720592713787</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.03546733333333333</v>
+        <v>2.721158333333333</v>
       </c>
       <c r="N13">
-        <v>0.106402</v>
+        <v>8.163475</v>
       </c>
       <c r="O13">
-        <v>0.001314026205339509</v>
+        <v>0.09792162616202293</v>
       </c>
       <c r="P13">
-        <v>0.001314026205339509</v>
+        <v>0.09792162616202295</v>
       </c>
       <c r="Q13">
-        <v>0.008920128912888887</v>
+        <v>0.9652592615805555</v>
       </c>
       <c r="R13">
-        <v>0.08028116021599999</v>
+        <v>8.687333354225</v>
       </c>
       <c r="S13">
-        <v>5.546137464242021E-05</v>
+        <v>0.004958443046784128</v>
       </c>
       <c r="T13">
-        <v>5.546137464242023E-05</v>
+        <v>0.004958443046784129</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3553286666666667</v>
+        <v>0.479723</v>
       </c>
       <c r="H14">
-        <v>1.065986</v>
+        <v>1.439169</v>
       </c>
       <c r="I14">
-        <v>0.0596312969742481</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="J14">
-        <v>0.05963129697424811</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.274082666666667</v>
+        <v>2.330737666666666</v>
       </c>
       <c r="N14">
-        <v>6.822248</v>
+        <v>6.992213</v>
       </c>
       <c r="O14">
-        <v>0.08425229461217887</v>
+        <v>0.08387223179237234</v>
       </c>
       <c r="P14">
-        <v>0.08425229461217888</v>
+        <v>0.08387223179237237</v>
       </c>
       <c r="Q14">
-        <v>0.8080467618364445</v>
+        <v>1.118108465666333</v>
       </c>
       <c r="R14">
-        <v>7.272420856528001</v>
+        <v>10.062976190997</v>
       </c>
       <c r="S14">
-        <v>0.005024073600780681</v>
+        <v>0.005743614558078</v>
       </c>
       <c r="T14">
-        <v>0.005024073600780683</v>
+        <v>0.005743614558078002</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3553286666666667</v>
+        <v>0.479723</v>
       </c>
       <c r="H15">
-        <v>1.065986</v>
+        <v>1.439169</v>
       </c>
       <c r="I15">
-        <v>0.0596312969742481</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="J15">
-        <v>0.05963129697424811</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>68.066532</v>
       </c>
       <c r="O15">
-        <v>0.8405970447414548</v>
+        <v>0.8164642509041029</v>
       </c>
       <c r="P15">
-        <v>0.8405970447414549</v>
+        <v>0.816464250904103</v>
       </c>
       <c r="Q15">
-        <v>8.061996686728</v>
+        <v>10.884360310212</v>
       </c>
       <c r="R15">
-        <v>72.557970180552</v>
+        <v>97.95924279190798</v>
       </c>
       <c r="S15">
-        <v>0.050125892010653</v>
+        <v>0.0559119014413723</v>
       </c>
       <c r="T15">
-        <v>0.05012589201065303</v>
+        <v>0.05591190144137231</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3553286666666667</v>
+        <v>0.479723</v>
       </c>
       <c r="H16">
-        <v>1.065986</v>
+        <v>1.439169</v>
       </c>
       <c r="I16">
-        <v>0.0596312969742481</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="J16">
-        <v>0.05963129697424811</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>1.99295</v>
+        <v>0.04840566666666667</v>
       </c>
       <c r="N16">
-        <v>5.97885</v>
+        <v>0.145217</v>
       </c>
       <c r="O16">
-        <v>0.07383663444102673</v>
+        <v>0.001741891141501687</v>
       </c>
       <c r="P16">
-        <v>0.07383663444102673</v>
+        <v>0.001741891141501688</v>
       </c>
       <c r="Q16">
-        <v>0.7081522662333335</v>
+        <v>0.02322131163033334</v>
       </c>
       <c r="R16">
-        <v>6.373370396100001</v>
+        <v>0.208991804673</v>
       </c>
       <c r="S16">
-        <v>0.00440297427593186</v>
+        <v>0.0001192856217738809</v>
       </c>
       <c r="T16">
-        <v>0.004402974275931861</v>
+        <v>0.0001192856217738809</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3553286666666667</v>
+        <v>0.479723</v>
       </c>
       <c r="H17">
-        <v>1.065986</v>
+        <v>1.439169</v>
       </c>
       <c r="I17">
-        <v>0.0596312969742481</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="J17">
-        <v>0.05963129697424811</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.03546733333333333</v>
+        <v>2.721158333333333</v>
       </c>
       <c r="N17">
-        <v>0.106402</v>
+        <v>8.163475</v>
       </c>
       <c r="O17">
-        <v>0.001314026205339509</v>
+        <v>0.09792162616202293</v>
       </c>
       <c r="P17">
-        <v>0.001314026205339509</v>
+        <v>0.09792162616202295</v>
       </c>
       <c r="Q17">
-        <v>0.01260256026355555</v>
+        <v>1.305402239141667</v>
       </c>
       <c r="R17">
-        <v>0.113423042372</v>
+        <v>11.748620152275</v>
       </c>
       <c r="S17">
-        <v>7.835708688254458E-05</v>
+        <v>0.006705724475857044</v>
       </c>
       <c r="T17">
-        <v>7.835708688254461E-05</v>
+        <v>0.006705724475857044</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1830476666666667</v>
+        <v>0.2064496666666667</v>
       </c>
       <c r="H18">
-        <v>0.549143</v>
+        <v>0.619349</v>
       </c>
       <c r="I18">
-        <v>0.03071908009516966</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="J18">
-        <v>0.03071908009516967</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.274082666666667</v>
+        <v>2.330737666666666</v>
       </c>
       <c r="N18">
-        <v>6.822248</v>
+        <v>6.992213</v>
       </c>
       <c r="O18">
-        <v>0.08425229461217887</v>
+        <v>0.08387223179237234</v>
       </c>
       <c r="P18">
-        <v>0.08425229461217888</v>
+        <v>0.08387223179237237</v>
       </c>
       <c r="Q18">
-        <v>0.4162655259404445</v>
+        <v>0.4811800143707777</v>
       </c>
       <c r="R18">
-        <v>3.746389733464</v>
+        <v>4.330620129337</v>
       </c>
       <c r="S18">
-        <v>0.002588152986393354</v>
+        <v>0.002471774984682863</v>
       </c>
       <c r="T18">
-        <v>0.002588152986393355</v>
+        <v>0.002471774984682864</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1830476666666667</v>
+        <v>0.2064496666666667</v>
       </c>
       <c r="H19">
-        <v>0.549143</v>
+        <v>0.619349</v>
       </c>
       <c r="I19">
-        <v>0.03071908009516966</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="J19">
-        <v>0.03071908009516967</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>68.066532</v>
       </c>
       <c r="O19">
-        <v>0.8405970447414548</v>
+        <v>0.8164642509041029</v>
       </c>
       <c r="P19">
-        <v>0.8405970447414549</v>
+        <v>0.816464250904103</v>
       </c>
       <c r="Q19">
-        <v>4.153139953564001</v>
+        <v>4.684104280852</v>
       </c>
       <c r="R19">
-        <v>37.378259582076</v>
+        <v>42.156938527668</v>
       </c>
       <c r="S19">
-        <v>0.02582236794517567</v>
+        <v>0.02406178860565541</v>
       </c>
       <c r="T19">
-        <v>0.02582236794517567</v>
+        <v>0.02406178860565542</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,55 +1647,55 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.2064496666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.619349</v>
+      </c>
+      <c r="I20">
+        <v>0.02947071911478163</v>
+      </c>
+      <c r="J20">
+        <v>0.02947071911478163</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G20">
-        <v>0.1830476666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.549143</v>
-      </c>
-      <c r="I20">
-        <v>0.03071908009516966</v>
-      </c>
-      <c r="J20">
-        <v>0.03071908009516967</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
       <c r="M20">
-        <v>1.99295</v>
+        <v>0.04840566666666667</v>
       </c>
       <c r="N20">
-        <v>5.97885</v>
+        <v>0.145217</v>
       </c>
       <c r="O20">
-        <v>0.07383663444102673</v>
+        <v>0.001741891141501687</v>
       </c>
       <c r="P20">
-        <v>0.07383663444102673</v>
+        <v>0.001741891141501688</v>
       </c>
       <c r="Q20">
-        <v>0.3648048472833334</v>
+        <v>0.009993333748111113</v>
       </c>
       <c r="R20">
-        <v>3.28324362555</v>
+        <v>0.08994000373300001</v>
       </c>
       <c r="S20">
-        <v>0.002268193487351663</v>
+        <v>5.133478455972257E-05</v>
       </c>
       <c r="T20">
-        <v>0.002268193487351663</v>
+        <v>5.133478455972258E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,55 +1709,55 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.1830476666666667</v>
+        <v>0.2064496666666667</v>
       </c>
       <c r="H21">
-        <v>0.549143</v>
+        <v>0.619349</v>
       </c>
       <c r="I21">
-        <v>0.03071908009516966</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="J21">
-        <v>0.03071908009516967</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.03546733333333333</v>
+        <v>2.721158333333333</v>
       </c>
       <c r="N21">
-        <v>0.106402</v>
+        <v>8.163475</v>
       </c>
       <c r="O21">
-        <v>0.001314026205339509</v>
+        <v>0.09792162616202293</v>
       </c>
       <c r="P21">
-        <v>0.001314026205339509</v>
+        <v>0.09792162616202295</v>
       </c>
       <c r="Q21">
-        <v>0.006492212609555556</v>
+        <v>0.5617822308638889</v>
       </c>
       <c r="R21">
-        <v>0.058429913486</v>
+        <v>5.056040077775</v>
       </c>
       <c r="S21">
-        <v>4.036567624897624E-05</v>
+        <v>0.00288582073988363</v>
       </c>
       <c r="T21">
-        <v>4.036567624897625E-05</v>
+        <v>0.002885820739883631</v>
       </c>
     </row>
   </sheetData>
